--- a/Data/Exports/semi structured form.pdf_1-1.xlsx
+++ b/Data/Exports/semi structured form.pdf_1-1.xlsx
@@ -8,8 +8,6 @@
   <x:sheets>
     <x:sheet name="Simple Fields" sheetId="2" r:id="rId2"/>
     <x:sheet name="Simple Fields - Formatted" sheetId="5" r:id="rId5"/>
-    <x:sheet name="items" sheetId="7" r:id="rId7"/>
-    <x:sheet name="items - Formatted" sheetId="8" r:id="rId8"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -17,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <x:si>
     <x:t>invoiceNumber</x:t>
   </x:si>
@@ -25,125 +23,37 @@
     <x:t>invoiceNumber - Confidence</x:t>
   </x:si>
   <x:si>
+    <x:t>InvoiceDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InvoiceDate - Confidence</x:t>
+  </x:si>
+  <x:si>
     <x:t>receiver</x:t>
   </x:si>
   <x:si>
     <x:t>receiver - Confidence</x:t>
   </x:si>
   <x:si>
-    <x:t>items</x:t>
-  </x:si>
-  <x:si>
-    <x:t>items - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>00720/01/20</x:t>
   </x:si>
   <x:si>
-    <x:t>0.9761153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ИЗ АГРО НЕЛА с.Дорфулија, опш.Лозово СВЕТИ НИКОЛЕ</x:t>
+    <x:t>0.7539245</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03.07.2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.7780506</x:t>
+  </x:si>
+  <x:si>
+    <x:t>АГРО НЕЛА с.Дорфулија, опш.Лозово СВЕТИ</x:t>
   </x:si>
   <x:si>
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>table</x:t>
-  </x:si>
-  <x:si>
-    <x:t>description</x:t>
-  </x:si>
-  <x:si>
-    <x:t>description - Confidence</x:t>
-  </x:si>
-  <x:si>
-    <x:t>em</x:t>
-  </x:si>
-  <x:si>
-    <x:t>em - Confidence</x:t>
-  </x:si>
-  <x:si>
-    <x:t>quantity</x:t>
-  </x:si>
-  <x:si>
-    <x:t>quantity - Confidence</x:t>
-  </x:si>
-  <x:si>
-    <x:t>singularPrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>singularPrice - Confidence</x:t>
-  </x:si>
-  <x:si>
-    <x:t>discount</x:t>
-  </x:si>
-  <x:si>
-    <x:t>discount - Confidence</x:t>
-  </x:si>
-  <x:si>
-    <x:t>priceWithDiscount</x:t>
-  </x:si>
-  <x:si>
-    <x:t>priceWithDiscount - Confidence</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tax</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tax - Confidence</x:t>
-  </x:si>
-  <x:si>
-    <x:t>priceWithTaxes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>priceWithTaxes - Confidence</x:t>
-  </x:si>
-  <x:si>
-    <x:t>valueWithTaxes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>valueWithTaxes - Confidence</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. Трактор John Deere 6195М со кабина</x:t>
-  </x:si>
-  <x:si>
-    <x:t>пар</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,861,500. 00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,861,500.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,154,575. 00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,154,575.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Key,Value
-"Value",""</x:t>
-  </x:si>
-  <x:si>
-    <x:t>.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5861500.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6154575.00</x:t>
+    <x:t>2020-07-03</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -189,45 +99,14 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="10">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+  <x:cellStyleXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -568,7 +447,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -619,7 +498,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>9</x:v>
@@ -628,271 +507,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:R2"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:18">
-      <x:c r="A1" s="0" t="s">
         <x:v>11</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D1" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E1" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F1" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="G1" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="H1" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="I1" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="J1" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="K1" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="L1" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="M1" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="N1" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="O1" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="P1" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="Q1" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="R1" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:18">
-      <x:c r="A2" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="I2" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="J2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="K2" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="L2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="M2" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="N2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="O2" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="P2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="Q2" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="R2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:R2"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:18">
-      <x:c r="A1" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D1" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E1" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F1" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="G1" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="H1" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="I1" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="J1" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="K1" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="L1" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="M1" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="N1" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="O1" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="P1" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="Q1" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="R1" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:18">
-      <x:c r="A2" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G2" s="1" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="I2" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="J2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="K2" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="L2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="M2" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="N2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="O2" s="1" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="P2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="Q2" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="R2" s="0" t="s">
-        <x:v>9</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Data/Exports/semi structured form.pdf_1-1.xlsx
+++ b/Data/Exports/semi structured form.pdf_1-1.xlsx
@@ -8,8 +8,6 @@
   <x:sheets>
     <x:sheet name="Simple Fields" sheetId="2" r:id="rId2"/>
     <x:sheet name="Simple Fields - Formatted" sheetId="5" r:id="rId5"/>
-    <x:sheet name="items" sheetId="7" r:id="rId7"/>
-    <x:sheet name="items - Formatted" sheetId="8" r:id="rId8"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -17,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <x:si>
     <x:t>invoiceNumber</x:t>
   </x:si>
@@ -37,71 +35,25 @@
     <x:t>receiver - Confidence</x:t>
   </x:si>
   <x:si>
-    <x:t>items</x:t>
-  </x:si>
-  <x:si>
-    <x:t>items - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>00720/01/20</x:t>
   </x:si>
   <x:si>
+    <x:t>0.7539245</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03.07.2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.7780506</x:t>
+  </x:si>
+  <x:si>
+    <x:t>АГРО НЕЛА с.Дорфулија, опш.Лозово СВЕТИ</x:t>
+  </x:si>
+  <x:si>
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>03.07.2020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ИЗ АГРО НЕЛА</x:t>
-  </x:si>
-  <x:si>
-    <x:t>table</x:t>
-  </x:si>
-  <x:si>
     <x:t>2020-07-03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>description</x:t>
-  </x:si>
-  <x:si>
-    <x:t>description - Confidence</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rate - Confidence</x:t>
-  </x:si>
-  <x:si>
-    <x:t>quantity</x:t>
-  </x:si>
-  <x:si>
-    <x:t>quantity - Confidence</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lineAmount</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lineAmount - Confidence</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Трактор John Deere 6195М со кабина</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,861,500. 00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,154,575.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Key,Value
-"Value",""</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6154575.00</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -147,93 +99,14 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="26">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+  <x:cellStyleXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -537,7 +410,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:8">
+    <x:row r="1" spans="1:6">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -556,37 +429,25 @@
       <x:c r="F1" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G1" s="0" t="s">
+    </x:row>
+    <x:row r="2" spans="1:6">
+      <x:c r="A2" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H1" s="0" t="s">
+      <x:c r="B2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:8">
-      <x:c r="A2" s="0" t="s">
+      <x:c r="C2" s="0" t="s">
         <x:v>8</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>10</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
         <x:v>11</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>9</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -609,7 +470,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:8">
+    <x:row r="1" spans="1:6">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -628,181 +489,25 @@
       <x:c r="F1" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G1" s="0" t="s">
+    </x:row>
+    <x:row r="2" spans="1:6">
+      <x:c r="A2" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H1" s="0" t="s">
+      <x:c r="B2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:8">
-      <x:c r="A2" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
         <x:v>11</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:H2"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:8">
-      <x:c r="A1" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="D1" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E1" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="F1" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G1" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H1" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:8">
-      <x:c r="A2" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:H2"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:8">
-      <x:c r="A1" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="D1" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E1" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="F1" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G1" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H1" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:8">
-      <x:c r="A2" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C2" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>9</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Data/Exports/semi structured form.pdf_1-1.xlsx
+++ b/Data/Exports/semi structured form.pdf_1-1.xlsx
@@ -8,6 +8,8 @@
   <x:sheets>
     <x:sheet name="Simple Fields" sheetId="2" r:id="rId2"/>
     <x:sheet name="Simple Fields - Formatted" sheetId="5" r:id="rId5"/>
+    <x:sheet name="items" sheetId="7" r:id="rId7"/>
+    <x:sheet name="items - Formatted" sheetId="8" r:id="rId8"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -15,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <x:si>
     <x:t>invoiceNumber</x:t>
   </x:si>
@@ -35,25 +37,71 @@
     <x:t>receiver - Confidence</x:t>
   </x:si>
   <x:si>
+    <x:t>items</x:t>
+  </x:si>
+  <x:si>
+    <x:t>items - Confidence</x:t>
+  </x:si>
+  <x:si>
     <x:t>00720/01/20</x:t>
   </x:si>
   <x:si>
-    <x:t>0.7539245</x:t>
+    <x:t>1</x:t>
   </x:si>
   <x:si>
     <x:t>03.07.2020</x:t>
   </x:si>
   <x:si>
-    <x:t>0.7780506</x:t>
-  </x:si>
-  <x:si>
-    <x:t>АГРО НЕЛА с.Дорфулија, опш.Лозово СВЕТИ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1</x:t>
+    <x:t>ИЗ АГРО НЕЛА</x:t>
+  </x:si>
+  <x:si>
+    <x:t>table</x:t>
   </x:si>
   <x:si>
     <x:t>2020-07-03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>description - Confidence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rate - Confidence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>quantity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>quantity - Confidence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lineAmount</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lineAmount - Confidence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Трактор John Deere 6195М со кабина</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,861,500. 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,154,575.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Key,Value
+"Value",""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6154575.00</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -99,14 +147,21 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="1">
+  <x:cellStyleXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
+  <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -410,7 +465,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:6">
+    <x:row r="1" spans="1:8">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -429,25 +484,37 @@
       <x:c r="F1" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:6">
+    <x:row r="2" spans="1:8">
       <x:c r="A2" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -470,7 +537,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:6">
+    <x:row r="1" spans="1:8">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -489,25 +556,181 @@
       <x:c r="F1" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:6">
+    <x:row r="2" spans="1:8">
       <x:c r="A2" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:H2"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:8">
+      <x:c r="A1" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8">
+      <x:c r="A2" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:H2"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:8">
+      <x:c r="A1" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8">
+      <x:c r="A2" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C2" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Data/Exports/semi structured form.pdf_1-1.xlsx
+++ b/Data/Exports/semi structured form.pdf_1-1.xlsx
@@ -147,7 +147,19 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="6">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/semi structured form.pdf_1-1.xlsx
+++ b/Data/Exports/semi structured form.pdf_1-1.xlsx
@@ -147,7 +147,19 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="6">
+  <x:cellStyleXfs count="10">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/semi structured form.pdf_1-1.xlsx
+++ b/Data/Exports/semi structured form.pdf_1-1.xlsx
@@ -147,7 +147,19 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="10">
+  <x:cellStyleXfs count="14">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/semi structured form.pdf_1-1.xlsx
+++ b/Data/Exports/semi structured form.pdf_1-1.xlsx
@@ -147,7 +147,43 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="14">
+  <x:cellStyleXfs count="26">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/semi structured form.pdf_1-1.xlsx
+++ b/Data/Exports/semi structured form.pdf_1-1.xlsx
@@ -147,79 +147,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="34">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+  <x:cellStyleXfs count="10">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/semi structured form.pdf_1-1.xlsx
+++ b/Data/Exports/semi structured form.pdf_1-1.xlsx
@@ -147,7 +147,19 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="18">
+  <x:cellStyleXfs count="22">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/semi structured form.pdf_1-1.xlsx
+++ b/Data/Exports/semi structured form.pdf_1-1.xlsx
@@ -147,7 +147,31 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="22">
+  <x:cellStyleXfs count="30">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/semi structured form.pdf_1-1.xlsx
+++ b/Data/Exports/semi structured form.pdf_1-1.xlsx
@@ -147,7 +147,19 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="30">
+  <x:cellStyleXfs count="34">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
